--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325774.792574702</v>
+        <v>1321679.151069937</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>373.7684004380502</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>115.4509545620923</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>118.1692128216235</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.781160222248801</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.16717921355901</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>88.67081173521299</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>63.57863427430495</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>94.8327615202051</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>33.2155532415946</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>197.2040098788571</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.9493547944869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.7812597870353</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>185.404873121236</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>30.40549967255499</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>101.9434035445953</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.45703212904686</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>14.53306611597336</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.725694231566</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>906.1501793480356</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>495.1642745584281</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2321.022995106331</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2321.022995106331</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>1989.96010776276</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.191452492646</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.725694231566</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.725694231566</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.6096278019662</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="C4" t="n">
-        <v>170.6096278019662</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="D4" t="n">
-        <v>170.6096278019662</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>1206.928697531324</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322059</v>
+        <v>978.9391466333066</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.2580926322059</v>
+        <v>977.1399948936613</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1325.769616740287</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>967.5039181335369</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>967.5039181335369</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>556.5180133439294</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>140.8132630682182</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
         <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1572.225277373179</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1283.106939877017</v>
+        <v>1540.65545187227</v>
       </c>
       <c r="V7" t="n">
-        <v>1028.42245167113</v>
+        <v>1285.970963666383</v>
       </c>
       <c r="W7" t="n">
-        <v>739.005281634169</v>
+        <v>996.5537936294221</v>
       </c>
       <c r="X7" t="n">
-        <v>739.005281634169</v>
+        <v>768.5642427314048</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.2127024906389</v>
+        <v>547.7716635878746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>926.121535257193</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>515.1356304675855</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>100.063180312582</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>100.063180312582</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3126.409852034567</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.4849621798493</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1889.318611635834</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214135</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008248</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971288</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732703</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732703</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,25 +5044,25 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1063.573343591573</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>894.6371606636665</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>744.5205212513307</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>596.6074276689376</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>449.7174801710272</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732377</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6262,16 +6262,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1031.260321675049</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>862.3241387471426</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>712.2074993348068</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>564.2944057524137</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>417.4044582545033</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>250.2083589693833</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>108.4965278115813</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.701365648819</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1212.908786505289</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883066534</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.74287850523351</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>66.73277020259198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>149.4264805093823</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>115.4620467826929</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>114.1584408891655</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>86.99395161137552</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>66.73277020259218</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886671</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="14">
@@ -26319,19 +26319,19 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26340,7 +26340,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26349,13 +26349,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403375</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551197</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309562</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26438,7 +26438,7 @@
         <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850586.6310741773</v>
+        <v>-850586.6310741771</v>
       </c>
       <c r="C6" t="n">
         <v>264165.1525017422</v>
       </c>
       <c r="D6" t="n">
-        <v>104149.6897537437</v>
+        <v>104149.6897537431</v>
       </c>
       <c r="E6" t="n">
-        <v>49025.71179099678</v>
+        <v>48678.33253664013</v>
       </c>
       <c r="F6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="G6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439953</v>
       </c>
       <c r="H6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="I6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="J6" t="n">
-        <v>206832.9957883697</v>
+        <v>206485.6165340128</v>
       </c>
       <c r="K6" t="n">
-        <v>374438.1735983521</v>
+        <v>374090.794343995</v>
       </c>
       <c r="L6" t="n">
-        <v>326144.2035901615</v>
+        <v>325796.8243358045</v>
       </c>
       <c r="M6" t="n">
-        <v>289383.1456628402</v>
+        <v>289035.7664084833</v>
       </c>
       <c r="N6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="O6" t="n">
-        <v>374438.1735983522</v>
+        <v>374090.7943439952</v>
       </c>
       <c r="P6" t="n">
-        <v>374438.1735983521</v>
+        <v>374090.7943439952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.77930233490378</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>91.20723041814141</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>28.26474982494567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>216.803493129846</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5666624499216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.3477408271924</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27827,10 +27827,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>157.170061722907</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>191.3943926009955</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.361376531331352</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>152.0369588385559</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.88262538745045</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>181.9527721880368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>528.9386420741744</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35029,10 +35029,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844296</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1321679.151069937</v>
+        <v>1323439.681372722</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>373.7684004380502</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>112.9202415154701</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>56.60860467372773</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222248801</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>88.67081173521299</v>
+        <v>230.4013291202</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542789</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>94.8327615202051</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.2155532415946</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>54.34809064563621</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.59617708813238</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.17550840396389</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.16281301712745</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.7812597870353</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.40549967255499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>101.9434035445953</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
-        <v>59.44001103519365</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.900948886692</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.93843194628</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.93843194628</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>906.1501793480356</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>495.1642745584281</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,13 +4327,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087292</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926625</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926625</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.500788950813</v>
+        <v>2058.139146408717</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>977.1399948936613</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>977.1399948936613</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1751.030355774172</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1496.345867568285</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.928697531324</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>978.9391466333066</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>977.1399948936613</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1694.732133680699</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>1325.769616740287</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="D5" t="n">
-        <v>967.5039181335369</v>
+        <v>772.9993020299587</v>
       </c>
       <c r="E5" t="n">
-        <v>967.5039181335369</v>
+        <v>772.9993020299587</v>
       </c>
       <c r="F5" t="n">
-        <v>556.5180133439294</v>
+        <v>362.0133972403511</v>
       </c>
       <c r="G5" t="n">
-        <v>140.8132630682182</v>
+        <v>350.3490510050441</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>2084.871465656511</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1694.732133680699</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.1231987576349</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1540.65545187227</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1285.970963666383</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>996.5537936294221</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>768.5642427314048</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>547.7716635878746</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855437</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855437</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1311.909787855437</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>926.121535257193</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>515.1356304675855</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>100.063180312582</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>100.063180312582</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1889.318611635834</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>612.4311299055737</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5180363231806</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2443.925817935984</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.070983590888</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1063.573343591573</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="C16" t="n">
-        <v>894.6371606636665</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="D16" t="n">
-        <v>744.5205212513307</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="E16" t="n">
-        <v>596.6074276689376</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>449.7174801710272</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1466.014387565343</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>1245.221808421813</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711974</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2161.135114341634</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1872.059887685832</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1617.375399479945</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442984</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.1760994014371</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6603,22 +6603,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6697,16 +6697,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7317,28 +7317,28 @@
         <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7560,7 +7560,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7648,7 +7648,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>84.24553961896736</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.36835372228757</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.27114962944172</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.74287850523351</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.4264805093823</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>115.4620467826929</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823098</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
-        <v>86.99395161137552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886675</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886675</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886675</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936147.8611886671</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886675</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886671</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>484287.9598140039</v>
+      </c>
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850586.6310741771</v>
+        <v>-850586.6310741772</v>
       </c>
       <c r="C6" t="n">
-        <v>264165.1525017422</v>
+        <v>264165.1525017423</v>
       </c>
       <c r="D6" t="n">
-        <v>104149.6897537431</v>
+        <v>104149.6897537433</v>
       </c>
       <c r="E6" t="n">
-        <v>48678.33253664013</v>
+        <v>48990.97386556104</v>
       </c>
       <c r="F6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="G6" t="n">
-        <v>374090.7943439953</v>
+        <v>374403.4356729169</v>
       </c>
       <c r="H6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="I6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="J6" t="n">
-        <v>206485.6165340128</v>
+        <v>206798.257862934</v>
       </c>
       <c r="K6" t="n">
-        <v>374090.794343995</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="L6" t="n">
-        <v>325796.8243358045</v>
+        <v>326109.4656647256</v>
       </c>
       <c r="M6" t="n">
-        <v>289035.7664084833</v>
+        <v>289348.4077374045</v>
       </c>
       <c r="N6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="O6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="P6" t="n">
-        <v>374090.7943439952</v>
+        <v>374403.4356729164</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.77930233490378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.53197388332433</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>195.5290386501003</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.803493129846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3477408271924</v>
+        <v>70.61722344220533</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>191.3943926009955</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>8.361376531331352</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>273.4041678244987</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>181.9527721880368</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>353.6230700590495</v>
+        <v>620.1193660647484</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,13 +34792,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524547</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>211.4890361370311</v>
+        <v>477.9853321427302</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
